--- a/bin/sheets/main_db/teams/AFG/PlayerPerformance_4714.xlsx
+++ b/bin/sheets/main_db/teams/AFG/PlayerPerformance_4714.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4714</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mujeeb Ur Rahman</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Off Break</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>05/12/2017</t>
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4092</t>
+          <t>4092</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -552,7 +616,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4093</t>
+          <t>4093</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -604,7 +668,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4097</t>
+          <t>4097</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -644,7 +708,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>09/02/2018</t>
@@ -652,7 +715,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4129</t>
+          <t>4129</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -704,7 +767,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4131</t>
+          <t>4131</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -744,7 +807,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>13/02/2018</t>
@@ -752,7 +814,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4132</t>
+          <t>4132</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -792,7 +854,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>16/02/2018</t>
@@ -800,7 +861,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4134</t>
+          <t>4134</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -852,7 +913,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4136</t>
+          <t>4136</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -904,7 +965,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4140</t>
+          <t>4140</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -956,7 +1017,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4145</t>
+          <t>4145</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1008,7 +1069,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4147</t>
+          <t>4147</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1048,7 +1109,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>15/03/2018</t>
@@ -1056,7 +1116,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4154</t>
+          <t>4154</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1096,7 +1156,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>20/03/2018</t>
@@ -1104,7 +1163,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4160</t>
+          <t>4160</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1144,7 +1203,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>23/03/2018</t>
@@ -1152,7 +1210,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4163</t>
+          <t>4163</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1192,7 +1250,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>25/03/2018</t>
@@ -1200,7 +1257,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4164</t>
+          <t>4164</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1252,7 +1309,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4189</t>
+          <t>4189</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1304,7 +1361,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4190</t>
+          <t>4190</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1344,7 +1401,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>31/08/2018</t>
@@ -1352,7 +1408,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4192</t>
+          <t>4192</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1404,7 +1460,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4195</t>
+          <t>4195</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1444,7 +1500,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>20/09/2018</t>
@@ -1452,7 +1507,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4198</t>
+          <t>4198</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1492,7 +1547,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>21/09/2018</t>
@@ -1500,7 +1554,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4200</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1540,7 +1594,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>23/09/2018</t>
@@ -1548,7 +1601,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4202</t>
+          <t>4202</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1588,7 +1641,6 @@
           <t>23</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>25/09/2018</t>
@@ -1596,7 +1648,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4203</t>
+          <t>4203</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1636,7 +1688,6 @@
           <t>24</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>28/02/2019</t>
@@ -1644,7 +1695,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4257</t>
+          <t>4257</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1684,7 +1735,6 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>02/03/2019</t>
@@ -1692,7 +1742,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4259</t>
+          <t>4259</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1732,7 +1782,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>05/03/2019</t>
@@ -1740,7 +1789,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4262</t>
+          <t>4262</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1792,7 +1841,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4265</t>
+          <t>4265</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1832,7 +1881,6 @@
           <t>28</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>10/03/2019</t>
@@ -1840,7 +1888,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4267</t>
+          <t>4267</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1892,7 +1940,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4299</t>
+          <t>4299</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1932,7 +1980,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>21/05/2019</t>
@@ -1940,7 +1987,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4301</t>
+          <t>4301</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1992,7 +2039,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4306</t>
+          <t>4306</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2044,7 +2091,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4309</t>
+          <t>4309</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2084,7 +2131,6 @@
           <t>33</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>18/06/2019</t>
@@ -2092,7 +2138,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4326</t>
+          <t>4326</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2144,7 +2190,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4332</t>
+          <t>4332</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2196,7 +2242,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4335</t>
+          <t>4335</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2248,7 +2294,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4340</t>
+          <t>4340</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2300,7 +2346,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4348</t>
+          <t>4348</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2352,7 +2398,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4377</t>
+          <t>4377</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2404,7 +2450,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4378</t>
+          <t>4378</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2444,7 +2490,6 @@
           <t>40</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>11/11/2019</t>
@@ -2452,7 +2497,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4379</t>
+          <t>4379</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2504,7 +2549,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4444</t>
+          <t>4444</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2544,7 +2589,6 @@
           <t>42</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>24/01/2021</t>
@@ -2552,7 +2596,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4446</t>
+          <t>4446</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2604,7 +2648,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4448</t>
+          <t>4448</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2644,7 +2688,6 @@
           <t>44</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>21/01/2022</t>
@@ -2652,7 +2695,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4525</t>
+          <t>4525</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2692,7 +2735,6 @@
           <t>45</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>23/01/2022</t>
@@ -2700,7 +2742,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4528</t>
+          <t>4528</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2740,7 +2782,6 @@
           <t>46</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
           <t>25/01/2022</t>
@@ -2748,7 +2789,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4530</t>
+          <t>4530</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2800,7 +2841,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4537</t>
+          <t>4537</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2852,7 +2893,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4538</t>
+          <t>4538</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2892,7 +2933,6 @@
           <t>49</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
           <t>28/02/2022</t>
@@ -2900,7 +2940,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4539</t>
+          <t>4539</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2940,7 +2980,6 @@
           <t>50</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>04/06/2022</t>
@@ -2948,7 +2987,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4582</t>
+          <t>4582</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2988,7 +3027,6 @@
           <t>51</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
           <t>06/06/2022</t>
@@ -2996,7 +3034,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4585</t>
+          <t>4585</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3036,7 +3074,6 @@
           <t>52</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
           <t>09/06/2022</t>
@@ -3044,7 +3081,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4588</t>
+          <t>4588</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3096,7 +3133,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4671</t>
+          <t>4671</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3148,7 +3185,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4674</t>
+          <t>4674</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3188,7 +3225,6 @@
           <t>55</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>30/11/2022</t>
@@ -3196,7 +3232,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4675</t>
+          <t>4675</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3235,7 +3271,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3257,7 +3293,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -3294,7 +3330,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4092</t>
+          <t>4092</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3331,7 +3367,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4093</t>
+          <t>4093</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -3368,7 +3404,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4097</t>
+          <t>4097</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -3405,7 +3441,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4129</t>
+          <t>4129</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -3442,7 +3478,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4131</t>
+          <t>4131</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -3479,7 +3515,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4132</t>
+          <t>4132</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -3516,7 +3552,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4134</t>
+          <t>4134</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -3553,7 +3589,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4136</t>
+          <t>4136</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -3590,7 +3626,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4140</t>
+          <t>4140</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -3627,7 +3663,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4145</t>
+          <t>4145</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -3664,7 +3700,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4147</t>
+          <t>4147</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -3701,7 +3737,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4154</t>
+          <t>4154</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -3738,7 +3774,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4160</t>
+          <t>4160</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -3775,7 +3811,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4163</t>
+          <t>4163</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3812,7 +3848,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4164</t>
+          <t>4164</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3849,7 +3885,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4189</t>
+          <t>4189</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3886,7 +3922,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4190</t>
+          <t>4190</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -3923,7 +3959,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4192</t>
+          <t>4192</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -3960,7 +3996,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4195</t>
+          <t>4195</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -3997,7 +4033,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4198</t>
+          <t>4198</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4034,7 +4070,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4200</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -4071,7 +4107,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4202</t>
+          <t>4202</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -4108,7 +4144,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4203</t>
+          <t>4203</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -4145,7 +4181,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4257</t>
+          <t>4257</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -4182,7 +4218,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4262</t>
+          <t>4262</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -4219,7 +4255,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4265</t>
+          <t>4265</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -4256,7 +4292,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4267</t>
+          <t>4267</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -4293,7 +4329,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4299</t>
+          <t>4299</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -4330,7 +4366,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4301</t>
+          <t>4301</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -4367,7 +4403,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4306</t>
+          <t>4306</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4404,7 +4440,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4309</t>
+          <t>4309</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4441,7 +4477,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4326</t>
+          <t>4326</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4478,7 +4514,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4332</t>
+          <t>4332</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4515,7 +4551,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4335</t>
+          <t>4335</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4552,7 +4588,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4340</t>
+          <t>4340</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4589,7 +4625,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4348</t>
+          <t>4348</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4626,7 +4662,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4377</t>
+          <t>4377</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -4663,7 +4699,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4378</t>
+          <t>4378</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -4700,7 +4736,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4379</t>
+          <t>4379</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -4737,7 +4773,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4444</t>
+          <t>4444</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -4774,7 +4810,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4446</t>
+          <t>4446</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -4811,7 +4847,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4448</t>
+          <t>4448</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -4848,7 +4884,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4525</t>
+          <t>4525</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -4885,7 +4921,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4528</t>
+          <t>4528</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -4922,7 +4958,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4530</t>
+          <t>4530</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -4959,7 +4995,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4537</t>
+          <t>4537</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -4996,7 +5032,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4538</t>
+          <t>4538</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -5033,7 +5069,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4539</t>
+          <t>4539</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -5070,7 +5106,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4582</t>
+          <t>4582</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -5107,7 +5143,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4585</t>
+          <t>4585</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -5144,7 +5180,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4588</t>
+          <t>4588</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -5181,7 +5217,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4671</t>
+          <t>4671</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -5218,7 +5254,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4674</t>
+          <t>4674</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -5255,7 +5291,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4675</t>
+          <t>4675</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -5283,6 +5319,471 @@
           <t>0/70</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4340</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>11</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>3.08%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4348</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4377</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4378</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4379</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.35%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4444</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4446</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>6.77%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4448</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4525</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4528</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4530</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>9</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4537</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4538</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4539</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4582</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>9</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4585</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4588</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4671</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>9</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4674</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4675</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/AFG/PlayerPerformance_4714.xlsx
+++ b/bin/sheets/main_db/teams/AFG/PlayerPerformance_4714.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5420,7 +5421,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5446,7 +5446,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5462,9 +5461,6 @@
       <c r="B5" t="n">
         <v>10</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5510,9 +5506,6 @@
       <c r="B7" t="n">
         <v>10</v>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5555,10 +5548,6 @@
           <t>4448</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5574,9 +5563,6 @@
       <c r="B10" t="n">
         <v>9</v>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5592,9 +5578,6 @@
       <c r="B11" t="n">
         <v>8</v>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5620,7 +5603,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5633,10 +5615,6 @@
           <t>4537</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5652,9 +5630,6 @@
       <c r="B14" t="n">
         <v>9</v>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5670,9 +5645,6 @@
       <c r="B15" t="n">
         <v>9</v>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5688,9 +5660,6 @@
       <c r="B16" t="n">
         <v>9</v>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5706,9 +5675,6 @@
       <c r="B17" t="n">
         <v>9</v>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5721,10 +5687,6 @@
           <t>4588</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5750,7 +5712,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5763,10 +5724,6 @@
           <t>4674</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5779,11 +5736,330 @@
           <t>4675</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4340</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4348</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4377</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4378</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4379</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4444</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4446</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4448</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4525</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4528</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4530</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4537</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4538</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4539</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4582</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4585</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4588</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4671</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4674</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4675</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/AFG/PlayerPerformance_4714.xlsx
+++ b/bin/sheets/main_db/teams/AFG/PlayerPerformance_4714.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -558,6 +556,7 @@
           <t>1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>05/12/2017</t>
@@ -709,6 +708,7 @@
           <t>4</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>09/02/2018</t>
@@ -808,6 +808,7 @@
           <t>6</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>13/02/2018</t>
@@ -855,6 +856,7 @@
           <t>7</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>16/02/2018</t>
@@ -1110,6 +1112,7 @@
           <t>12</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>15/03/2018</t>
@@ -1157,6 +1160,7 @@
           <t>13</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>20/03/2018</t>
@@ -1204,6 +1208,7 @@
           <t>14</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>23/03/2018</t>
@@ -1251,6 +1256,7 @@
           <t>15</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>25/03/2018</t>
@@ -1402,6 +1408,7 @@
           <t>18</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>31/08/2018</t>
@@ -1501,6 +1508,7 @@
           <t>20</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>20/09/2018</t>
@@ -1548,6 +1556,7 @@
           <t>21</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>21/09/2018</t>
@@ -1595,6 +1604,7 @@
           <t>22</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>23/09/2018</t>
@@ -1642,6 +1652,7 @@
           <t>23</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>25/09/2018</t>
@@ -1689,6 +1700,7 @@
           <t>24</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>28/02/2019</t>
@@ -1736,6 +1748,7 @@
           <t>25</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>02/03/2019</t>
@@ -1783,6 +1796,7 @@
           <t>26</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>05/03/2019</t>
@@ -1882,6 +1896,7 @@
           <t>28</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>10/03/2019</t>
@@ -1981,6 +1996,7 @@
           <t>30</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>21/05/2019</t>
@@ -2132,6 +2148,7 @@
           <t>33</t>
         </is>
       </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>18/06/2019</t>
@@ -2491,6 +2508,7 @@
           <t>40</t>
         </is>
       </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>11/11/2019</t>
@@ -2590,6 +2608,7 @@
           <t>42</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>24/01/2021</t>
@@ -2689,6 +2708,7 @@
           <t>44</t>
         </is>
       </c>
+      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>21/01/2022</t>
@@ -2736,6 +2756,7 @@
           <t>45</t>
         </is>
       </c>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>23/01/2022</t>
@@ -2783,6 +2804,7 @@
           <t>46</t>
         </is>
       </c>
+      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
           <t>25/01/2022</t>
@@ -2934,6 +2956,7 @@
           <t>49</t>
         </is>
       </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
           <t>28/02/2022</t>
@@ -2981,6 +3004,7 @@
           <t>50</t>
         </is>
       </c>
+      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>04/06/2022</t>
@@ -3028,6 +3052,7 @@
           <t>51</t>
         </is>
       </c>
+      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
           <t>06/06/2022</t>
@@ -3075,6 +3100,7 @@
           <t>52</t>
         </is>
       </c>
+      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
           <t>09/06/2022</t>
@@ -3226,6 +3252,7 @@
           <t>55</t>
         </is>
       </c>
+      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>30/11/2022</t>
@@ -5324,744 +5351,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4340</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>11</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>3.08%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4348</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>11</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4377</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4378</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>10</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4379</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>10</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0.35%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4444</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>10</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4446</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>6.77%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4448</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4525</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>9</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4528</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4530</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>9</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4537</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4538</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>9</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4539</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>9</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4582</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>9</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4585</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>9</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4588</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4671</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>9</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4674</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4675</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4340</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4348</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4377</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4378</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4379</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4444</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4446</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4448</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4525</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4528</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4530</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4537</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4538</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4539</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4582</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4585</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4588</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4671</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4674</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4675</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/bin/sheets/main_db/teams/AFG/PlayerPerformance_4714.xlsx
+++ b/bin/sheets/main_db/teams/AFG/PlayerPerformance_4714.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -556,7 +558,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>05/12/2017</t>
@@ -708,7 +709,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>09/02/2018</t>
@@ -808,7 +808,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>13/02/2018</t>
@@ -856,7 +855,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>16/02/2018</t>
@@ -1112,7 +1110,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>15/03/2018</t>
@@ -1160,7 +1157,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>20/03/2018</t>
@@ -1208,7 +1204,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>23/03/2018</t>
@@ -1256,7 +1251,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>25/03/2018</t>
@@ -1408,7 +1402,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>31/08/2018</t>
@@ -1508,7 +1501,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>20/09/2018</t>
@@ -1556,7 +1548,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>21/09/2018</t>
@@ -1604,7 +1595,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>23/09/2018</t>
@@ -1652,7 +1642,6 @@
           <t>23</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>25/09/2018</t>
@@ -1700,7 +1689,6 @@
           <t>24</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>28/02/2019</t>
@@ -1748,7 +1736,6 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>02/03/2019</t>
@@ -1796,7 +1783,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>05/03/2019</t>
@@ -1896,7 +1882,6 @@
           <t>28</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>10/03/2019</t>
@@ -1996,7 +1981,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>21/05/2019</t>
@@ -2148,7 +2132,6 @@
           <t>33</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>18/06/2019</t>
@@ -2508,7 +2491,6 @@
           <t>40</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>11/11/2019</t>
@@ -2608,7 +2590,6 @@
           <t>42</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>24/01/2021</t>
@@ -2708,7 +2689,6 @@
           <t>44</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>21/01/2022</t>
@@ -2756,7 +2736,6 @@
           <t>45</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>23/01/2022</t>
@@ -2804,7 +2783,6 @@
           <t>46</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
           <t>25/01/2022</t>
@@ -2956,7 +2934,6 @@
           <t>49</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
           <t>28/02/2022</t>
@@ -3004,7 +2981,6 @@
           <t>50</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>04/06/2022</t>
@@ -3052,7 +3028,6 @@
           <t>51</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
           <t>06/06/2022</t>
@@ -3100,7 +3075,6 @@
           <t>52</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
           <t>09/06/2022</t>
@@ -3252,7 +3226,6 @@
           <t>55</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>30/11/2022</t>
@@ -5351,4 +5324,1800 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4092</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>11</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4093</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2.26%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4097</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4129</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4131</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>8</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4132</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.41%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4134</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4136</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1.55%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4140</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4145</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4147</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1.76%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4154</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>6.59%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4160</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>11</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4163</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>11</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4164</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4189</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4190</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4192</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4195</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4198</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>4200</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>11</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0.45%</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>4202</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>4203</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>11</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>4257</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>10</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>6.28%</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>4259</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>4262</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>4265</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>11</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>3.08%</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>4267</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>11</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>4299</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>10</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>4301</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>10</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>4306</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>10</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0.35%</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>4309</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>10</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>4326</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>10</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>6.77%</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>4332</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>4335</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>9</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>4340</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>8</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>4348</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>9</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>4377</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>4378</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>9</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>4379</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>9</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>4444</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>9</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>4446</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>9</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>4448</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>4525</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>9</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>4528</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>4530</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>4537</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>4538</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>4539</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>4582</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>4585</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>4588</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>4671</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>4674</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>4675</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4092</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4093</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4097</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4129</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4131</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4132</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4134</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4136</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4140</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4145</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4147</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4154</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4160</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4163</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4164</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4189</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4190</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4192</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4195</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4198</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>4200</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>4202</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>4203</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>4257</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>4262</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>4265</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>4267</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>4299</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>4301</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>4306</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>4309</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>4326</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>4332</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>4335</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>4340</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>4348</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>4377</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>4378</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>4379</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>4444</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>4446</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>4448</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>4525</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>4528</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>4530</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>4537</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>4538</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>4539</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>4582</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>4585</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>4588</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>4671</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>4674</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>4675</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>